--- a/biology/Histoire de la zoologie et de la botanique/Lem/Lem..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Lem/Lem..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Antoine Lemaire, né le 1er novembre 1800 à Paris et mort le 22 juin 1871 dans le 10e arrondissement de Paris[1], est un botaniste français, auteur de nombreux ouvrages sur les Cactaceae..
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Antoine Lemaire, né le 1er novembre 1800 à Paris et mort le 22 juin 1871 dans le 10e arrondissement de Paris, est un botaniste français, auteur de nombreux ouvrages sur les Cactaceae..
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a commencé sa carrière comme professeur de littérature classique à l'université de Paris où il s'est découvert une passion pour la botanique.
 Devenu spécialiste des Cactaceae, il a écrit de nombreux livres sur ce thème et a nommé de nombreux genres et espèces comme le Schlumbergera.
@@ -545,7 +559,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Lemaireocereus et l'espèce  Melocactus lemairei ont été nommés en son honneur.
 </t>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cactearum aliquot novarum, 1838.
 Cactearum genera nova speciesque novae, 1839.
